--- a/California/WaterAllocation_WaterUse_CSWRCB/CSWRCB_Allocation and Water Use Schema Mapping to WaDE.xlsx
+++ b/California/WaterAllocation_WaterUse_CSWRCB/CSWRCB_Allocation and Water Use Schema Mapping to WaDE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\California\WaterAllocation_WaterUse_CSWRCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46BD4ED-62D5-459B-A9C0-E6076DA5076A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2978863E-07A6-4D79-9F96-547F2A690711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="645" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="402">
   <si>
     <t>Name</t>
   </si>
@@ -1081,9 +1081,6 @@
     <t>This SHOULD all be POD values.</t>
   </si>
   <si>
-    <t>Surface water or subsurface water</t>
-  </si>
-  <si>
     <t>The State Water Board has attempted to verify that data in the database is correct. However, some data errors still exist. If you find a data error, please send us an email with the record identification number, and a description of the error. If you know the correct data, please provide that information also. The State Water Board is maintaining this web site as a public service. The State Water Board strives to ensure that all technical data and other information made available to the public through this web site is accurate, complete and in conformance with the California Public Records Act. Neither the State Water Board nor the State of California, however, assumes any legal responsibility for the accuracy or completeness of the information contained on this site. Persons using information from this site for official purposes, or other purposes, for which accuracy and completeness are required, are hereby notified that they should first verify the information with the public records or other primary sources from which the information was obtained.</t>
   </si>
   <si>
@@ -1122,9 +1119,6 @@
 AFY</t>
   </si>
   <si>
-    <t>CSWRCBwr_O1</t>
-  </si>
-  <si>
     <t>ewrims_flat_file_pod</t>
   </si>
   <si>
@@ -1135,9 +1129,6 @@
   </si>
   <si>
     <t>SOURCE_TYPE</t>
-  </si>
-  <si>
-    <t>CSWRCBwr_WS + counter</t>
   </si>
   <si>
     <t>POD_ID</t>
@@ -1246,6 +1237,30 @@
   </si>
   <si>
     <t>As a temp fix to missing priority date info, we will make all records "except".</t>
+  </si>
+  <si>
+    <t>CSWRCBwr_OR1</t>
+  </si>
+  <si>
+    <t>CSWRCBwr_W + counter</t>
+  </si>
+  <si>
+    <t>Will need to fill in WaterSourceTypeCV. Use a dict too to search for already filled in values that share a similar name that aren't fulley filled. Can't use a word search as they repeat surface and sub keywrods in both categories for some odd reason.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">*POD_TYPE* may not be very reliable, too many comma separated values in there that don't need to be.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">We may try to just use the first value in the list. </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1613,7 +1628,7 @@
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1980,6 +1995,15 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2296,11 +2320,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE91C3C-F676-4E77-8227-802554E4B42D}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2372,67 +2396,61 @@
       <c r="C7" s="63"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="64"/>
       <c r="C8" s="63"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="64"/>
+      <c r="A9" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" t="s">
+        <v>343</v>
+      </c>
       <c r="C9" s="63"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="62" t="s">
-        <v>103</v>
+      <c r="B10" t="s">
+        <v>344</v>
       </c>
       <c r="C10" s="63"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="64"/>
+      <c r="B11" t="s">
+        <v>345</v>
+      </c>
       <c r="C11" s="63"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="64"/>
-      <c r="C12" s="63"/>
+      <c r="B12" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="64" t="s">
+      <c r="B13" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="64" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="108" t="s">
+      <c r="B19" s="108" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="108" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="108" t="s">
         <v>342</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="62" t="s">
-        <v>103</v>
-      </c>
-      <c r="B19" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -2449,7 +2467,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -2556,7 +2574,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="109" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G3" s="67" t="s">
         <v>7</v>
@@ -2591,7 +2609,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="85" t="s">
-        <v>346</v>
+        <v>167</v>
       </c>
       <c r="G4" s="37" t="s">
         <v>7</v>
@@ -2731,7 +2749,7 @@
         <v>7</v>
       </c>
       <c r="F8" s="85" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G8" s="37" t="s">
         <v>7</v>
@@ -2766,7 +2784,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="85" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G9" s="37" t="s">
         <v>7</v>
@@ -2801,7 +2819,7 @@
         <v>7</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G10" s="37" t="s">
         <v>7</v>
@@ -2871,7 +2889,7 @@
         <v>7</v>
       </c>
       <c r="F12" s="107" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G12" s="37" t="s">
         <v>7</v>
@@ -2913,7 +2931,7 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3013,7 +3031,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="93" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G3" s="67" t="s">
         <v>7</v>
@@ -3153,7 +3171,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="85" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G7" s="37" t="s">
         <v>7</v>
@@ -3188,7 +3206,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="85" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G8" s="37" t="s">
         <v>7</v>
@@ -3366,7 +3384,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3376,7 +3394,7 @@
     <col min="3" max="3" width="3.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.109375" style="20" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="23.21875" style="1" customWidth="1"/>
     <col min="8" max="8" width="20.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.109375" style="1" bestFit="1" customWidth="1"/>
@@ -3472,7 +3490,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="74" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="G3" s="67" t="s">
         <v>7</v>
@@ -3490,7 +3508,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>86</v>
       </c>
@@ -3507,7 +3525,7 @@
         <v>7</v>
       </c>
       <c r="F4" s="112" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G4" s="37" t="s">
         <v>7</v>
@@ -3542,7 +3560,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G5" s="37" t="s">
         <v>7</v>
@@ -3612,7 +3630,7 @@
         <v>7</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G7" s="37" t="s">
         <v>7</v>
@@ -3630,7 +3648,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="96" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>90</v>
       </c>
@@ -3647,7 +3665,7 @@
         <v>7</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G8" s="37" t="s">
         <v>7</v>
@@ -3665,7 +3683,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>91</v>
       </c>
@@ -3682,7 +3700,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="112" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G9" s="37" t="s">
         <v>7</v>
@@ -3783,7 +3801,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3889,7 +3907,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="93" t="s">
-        <v>364</v>
+        <v>399</v>
       </c>
       <c r="G3" s="95"/>
       <c r="H3" s="114"/>
@@ -4024,10 +4042,10 @@
         <v>7</v>
       </c>
       <c r="G7" s="82" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H7" s="59" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="I7" s="78" t="s">
         <v>7</v>
@@ -4056,7 +4074,7 @@
         <v>7</v>
       </c>
       <c r="F8" s="60" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G8" s="60" t="s">
         <v>7</v>
@@ -4094,10 +4112,10 @@
         <v>7</v>
       </c>
       <c r="G9" s="82" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H9" s="59" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I9" s="78" t="s">
         <v>7</v>
@@ -4144,7 +4162,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="H22" sqref="A22:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4248,11 +4266,11 @@
         <v>7</v>
       </c>
       <c r="F3" s="93" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G3" s="95"/>
       <c r="H3" s="115" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="I3" s="80" t="s">
         <v>7</v>
@@ -4314,7 +4332,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="82" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G5" s="82"/>
       <c r="H5" s="83"/>
@@ -4381,10 +4399,10 @@
         <v>7</v>
       </c>
       <c r="G7" s="82" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H7" s="83" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="I7" s="80" t="s">
         <v>7</v>
@@ -4414,10 +4432,10 @@
         <v>7</v>
       </c>
       <c r="G8" s="82" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H8" s="83" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="I8" s="80" t="s">
         <v>7</v>
@@ -4542,10 +4560,10 @@
         <v>7</v>
       </c>
       <c r="G12" s="82" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H12" s="83" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="I12" s="80" t="s">
         <v>7</v>
@@ -4575,10 +4593,10 @@
         <v>7</v>
       </c>
       <c r="G13" s="82" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H13" s="83" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="I13" s="80" t="s">
         <v>7</v>
@@ -4608,10 +4626,10 @@
         <v>7</v>
       </c>
       <c r="G14" s="82" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H14" s="59" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="I14" s="80" t="s">
         <v>7</v>
@@ -4643,10 +4661,10 @@
         <v>7</v>
       </c>
       <c r="G15" s="82" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H15" s="59" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="I15" s="80" t="s">
         <v>7</v>
@@ -4776,13 +4794,13 @@
         <v>7</v>
       </c>
       <c r="F19" s="82" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G19" s="82" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H19" s="83" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="I19" s="80" t="s">
         <v>7</v>
@@ -4814,10 +4832,10 @@
         <v>7</v>
       </c>
       <c r="G20" s="82" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H20" s="59" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="I20" s="80" t="s">
         <v>7</v>
@@ -4863,29 +4881,29 @@
       </c>
     </row>
     <row r="22" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="12" t="s">
+      <c r="C22" s="126" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="81" t="s">
+      <c r="E22" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="82" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="82" t="s">
-        <v>360</v>
-      </c>
-      <c r="H22" s="86" t="s">
-        <v>375</v>
+      <c r="F22" s="116" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="116" t="s">
+        <v>358</v>
+      </c>
+      <c r="H22" s="128" t="s">
+        <v>372</v>
       </c>
       <c r="I22" s="80" t="s">
         <v>7</v>
@@ -4914,7 +4932,7 @@
         <v>10</v>
       </c>
       <c r="F23" s="82" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G23" s="82" t="s">
         <v>7</v>
@@ -4997,7 +5015,7 @@
   <dimension ref="A1:P87"/>
   <sheetViews>
     <sheetView topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5008,7 +5026,7 @@
     <col min="4" max="4" width="4.33203125" style="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43.77734375" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="23.33203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="122.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -5216,7 +5234,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F8" s="82"/>
       <c r="G8" s="83"/>
@@ -5345,10 +5363,10 @@
         <v>7</v>
       </c>
       <c r="F13" s="82" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G13" s="70" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H13" s="15" t="s">
         <v>7</v>
@@ -5598,13 +5616,13 @@
         <v>7</v>
       </c>
       <c r="E21" s="79" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F21" s="82" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G21" s="70" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="H21" s="15" t="s">
         <v>7</v>
@@ -5633,10 +5651,10 @@
         <v>7</v>
       </c>
       <c r="F22" s="82" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G22" s="70" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H22" s="15" t="s">
         <v>7</v>
@@ -5665,10 +5683,10 @@
         <v>7</v>
       </c>
       <c r="F23" s="82" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G23" s="70" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H23" s="15" t="s">
         <v>7</v>
@@ -5697,10 +5715,10 @@
         <v>7</v>
       </c>
       <c r="F24" s="82" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G24" s="70" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="H24" s="15" t="s">
         <v>7</v>
@@ -5729,10 +5747,10 @@
         <v>7</v>
       </c>
       <c r="F25" s="82" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G25" s="70" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H25" s="15" t="s">
         <v>7</v>
@@ -5761,10 +5779,10 @@
         <v>7</v>
       </c>
       <c r="F26" s="82" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G26" s="70" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H26" s="15" t="s">
         <v>7</v>
@@ -5793,10 +5811,10 @@
         <v>7</v>
       </c>
       <c r="F27" s="82" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G27" s="70" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="H27" s="15" t="s">
         <v>7</v>
@@ -5825,10 +5843,10 @@
         <v>7</v>
       </c>
       <c r="F28" s="82" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G28" s="70" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H28" s="15" t="s">
         <v>7</v>
@@ -5854,13 +5872,13 @@
         <v>7</v>
       </c>
       <c r="E29" s="79" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F29" s="82" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G29" s="70" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="H29" s="15" t="s">
         <v>7</v>
@@ -5889,10 +5907,10 @@
         <v>7</v>
       </c>
       <c r="F30" s="82" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G30" s="70" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="H30" s="15" t="s">
         <v>7</v>
@@ -6078,7 +6096,7 @@
         <v>7</v>
       </c>
       <c r="E36" s="79" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F36" s="82" t="s">
         <v>7</v>
@@ -6138,13 +6156,13 @@
         <v>7</v>
       </c>
       <c r="E38" s="79" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F38" s="82" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G38" s="70" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H38" s="28"/>
       <c r="I38" s="23" t="s">
@@ -6232,7 +6250,7 @@
         <v>10</v>
       </c>
       <c r="E41" s="79" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F41" s="82" t="s">
         <v>7</v>
@@ -6270,13 +6288,13 @@
         <v>7</v>
       </c>
       <c r="E42" s="79" t="s">
+        <v>388</v>
+      </c>
+      <c r="F42" s="82" t="s">
+        <v>358</v>
+      </c>
+      <c r="G42" s="70" t="s">
         <v>391</v>
-      </c>
-      <c r="F42" s="82" t="s">
-        <v>360</v>
-      </c>
-      <c r="G42" s="70" t="s">
-        <v>394</v>
       </c>
       <c r="H42" s="15" t="s">
         <v>7</v>
@@ -6338,7 +6356,7 @@
         <v>10</v>
       </c>
       <c r="E44" s="79" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F44" s="82" t="s">
         <v>7</v>
@@ -6410,13 +6428,13 @@
         <v>7</v>
       </c>
       <c r="E46" s="82" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F46" s="82" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G46" s="59" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H46" s="15" t="s">
         <v>7</v>
@@ -6461,8 +6479,8 @@
   <dimension ref="A1:L16410"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6474,7 +6492,7 @@
     <col min="5" max="5" width="4.109375" style="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="210" style="1" bestFit="1" customWidth="1"/>
@@ -6879,13 +6897,13 @@
         <v>7</v>
       </c>
       <c r="F13" s="82" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G13" s="79" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H13" s="86" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="I13" s="89" t="s">
         <v>7</v>
@@ -6950,10 +6968,10 @@
         <v>7</v>
       </c>
       <c r="G15" s="79" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H15" s="59" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="I15" s="89" t="s">
         <v>7</v>
@@ -6983,10 +7001,10 @@
         <v>7</v>
       </c>
       <c r="G16" s="79" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H16" s="83" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="I16" s="89" t="s">
         <v>7</v>
@@ -7086,10 +7104,10 @@
         <v>7</v>
       </c>
       <c r="G19" s="79" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H19" s="83" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I19" s="89" t="s">
         <v>7</v>
@@ -7220,10 +7238,10 @@
         <v>7</v>
       </c>
       <c r="G23" s="79" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H23" s="59" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="I23" s="89" t="s">
         <v>7</v>
@@ -7286,10 +7304,10 @@
         <v>7</v>
       </c>
       <c r="G25" s="79" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H25" s="59" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I25" s="89" t="s">
         <v>7</v>
@@ -7420,7 +7438,7 @@
         <v>7</v>
       </c>
       <c r="G29" s="79" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H29" s="86" t="s">
         <v>262</v>
@@ -7488,10 +7506,10 @@
         <v>7</v>
       </c>
       <c r="G31" s="79" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H31" s="86" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="I31" s="89" t="s">
         <v>7</v>
@@ -7523,10 +7541,10 @@
         <v>7</v>
       </c>
       <c r="G32" s="79" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H32" s="86" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="I32" s="89" t="s">
         <v>7</v>
@@ -56750,7 +56768,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
